--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AES\BP inte\Blueprism-Interview-Questions\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A35A3B1-3FE1-4CE6-A0E6-93552C670994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EC5867-AB97-4785-B1E7-D7A9DA772044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="15146" windowHeight="9463" xr2:uid="{660BD21E-70BB-4EC3-ABED-A73E0CB9D4B0}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>what-are-the-types-of-security-options-available-in-the-blue-prism-tool</t>
   </si>
   <si>
-    <t>define-these-terms:-ipa,-pdd,-frq,-sdd,-oid,-pdi,-and-odi.</t>
-  </si>
-  <si>
     <t>explain-work-queues-in-the-context-of-rpa-blue-prism</t>
   </si>
   <si>
@@ -134,43 +131,46 @@
     <t>why-do-we-use-tags-in-blue-prism</t>
   </si>
   <si>
-    <t>define-application-modeller.</t>
-  </si>
-  <si>
     <t>what-is-the-role-of-the-attach-option-in-blue-prism</t>
   </si>
   <si>
     <t>what-is-defined-by-dynamic-match-type</t>
   </si>
   <si>
-    <t>why-do-we-use-the-'preserve'-checkbox-option-in-blue-prism</t>
-  </si>
-  <si>
     <t>how-can-we-stop-a-process-that-is-running-in-the-control-room</t>
   </si>
   <si>
     <t>why-do-we-use-the-wait-stage-in-blue-prism</t>
   </si>
   <si>
-    <t>explain-control-room.</t>
-  </si>
-  <si>
     <t>what-is-the-main-difference-between-match-index-and-match-reverse-options-in-blue-prism</t>
   </si>
   <si>
-    <t>explain-the-connector-and-its-types-in-the-context-of-blue-prism.</t>
-  </si>
-  <si>
     <t>what-is-meant-by-the-recover-stage-in-blue-prism</t>
   </si>
   <si>
-    <t>define-system-unavailable-exception-and-mark-exception.</t>
-  </si>
-  <si>
     <t>what-are-the-modes-for-object-spying-in-blue-prism</t>
   </si>
   <si>
     <t>what-is-blue-prism-architecture</t>
+  </si>
+  <si>
+    <t>define-these-terms-ipa-pdd-frq-sdd-oid-pdi-and-odi</t>
+  </si>
+  <si>
+    <t>why-do-we-use-the-preserve-checkbox-option-in-blue-prism</t>
+  </si>
+  <si>
+    <t>define-application-modeller</t>
+  </si>
+  <si>
+    <t>explain-control-room</t>
+  </si>
+  <si>
+    <t>explain-the-connector-and-its-types-in-the-context-of-blue-prism</t>
+  </si>
+  <si>
+    <t>define-system-unavailable-exception-and-mark-exception</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB00BBC7-FDC5-4A73-9755-F73FB98AF871}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D23"/>
     </sheetView>
   </sheetViews>
@@ -633,11 +633,11 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>|7  | [Define these terms: IPA, PDD, FRQ, SDD, OID, PDI, and ODI.](#define-these-terms:-ipa,-pdd,-frq,-sdd,-oid,-pdi,-and-odi.) |</v>
+        <v>|7  | [Define these terms: IPA, PDD, FRQ, SDD, OID, PDI, and ODI.](#define-these-terms-ipa-pdd-frq-sdd-oid-pdi-and-odi) |</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -663,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -693,11 +693,11 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>|11  | [Define Application Modeller.](#define-application-modeller.) |</v>
+        <v>|11  | [Define Application Modeller.](#define-application-modeller) |</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -738,11 +738,11 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>|14  | [Why do we use the 'Preserve' checkbox option in Blue Prism?](#why-do-we-use-the-'preserve'-checkbox-option-in-blue-prism) |</v>
+        <v>|14  | [Why do we use the 'Preserve' checkbox option in Blue Prism?](#why-do-we-use-the-preserve-checkbox-option-in-blue-prism) |</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -753,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -768,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -783,11 +783,11 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>|17  | [Explain Control Room.](#explain-control-room.) |</v>
+        <v>|17  | [Explain Control Room.](#explain-control-room) |</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -813,11 +813,11 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>|19  | [Explain the connector and its types in the context of Blue Prism.](#explain-the-connector-and-its-types-in-the-context-of-blue-prism.) |</v>
+        <v>|19  | [Explain the connector and its types in the context of Blue Prism.](#explain-the-connector-and-its-types-in-the-context-of-blue-prism) |</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -828,7 +828,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -843,11 +843,11 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>|21  | [Define System Unavailable Exception and Mark Exception.](#define-system-unavailable-exception-and-mark-exception.) |</v>
+        <v>|21  | [Define System Unavailable Exception and Mark Exception.](#define-system-unavailable-exception-and-mark-exception) |</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -873,7 +873,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
